--- a/kraken/test_Substitution_transition.xlsx
+++ b/kraken/test_Substitution_transition.xlsx
@@ -14,7 +14,28 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="9">
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>T</t>
+  </si>
+  <si>
+    <t>G</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>0.0</t>
+  </si>
+  <si>
+    <t>100.0</t>
+  </si>
   <si>
     <r>
       <t>Mutation</t>
@@ -24,27 +45,6 @@
     <r>
       <t>WT</t>
     </r>
-  </si>
-  <si>
-    <t>A</t>
-  </si>
-  <si>
-    <t>T</t>
-  </si>
-  <si>
-    <t>G</t>
-  </si>
-  <si>
-    <t>C</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>0.0</t>
-  </si>
-  <si>
-    <t>100.0</t>
   </si>
 </sst>
 </file>
@@ -395,7 +395,7 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="C1" s="1" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
@@ -403,90 +403,90 @@
     </row>
     <row r="2" spans="1:6">
       <c r="C2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>3</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>2</v>
-      </c>
       <c r="C3" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D3" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E3" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F3" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="1"/>
       <c r="B4" s="1" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F4" t="s">
         <v>6</v>
-      </c>
-      <c r="D4" t="s">
-        <v>6</v>
-      </c>
-      <c r="E4" t="s">
-        <v>6</v>
-      </c>
-      <c r="F4" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="1"/>
       <c r="B5" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C5" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D5" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F5" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="1"/>
       <c r="B6" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D6" t="s">
+        <v>4</v>
+      </c>
+      <c r="E6" t="s">
+        <v>4</v>
+      </c>
+      <c r="F6" t="s">
         <v>5</v>
-      </c>
-      <c r="C6" t="s">
-        <v>6</v>
-      </c>
-      <c r="D6" t="s">
-        <v>6</v>
-      </c>
-      <c r="E6" t="s">
-        <v>6</v>
-      </c>
-      <c r="F6" t="s">
-        <v>7</v>
       </c>
     </row>
   </sheetData>
